--- a/data/trans_orig/P78A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78A_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53BB5C39-BD35-424F-9027-48A3A13E1208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13377D86-DF03-4216-819E-0A374D011C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8138C21E-1F47-42F9-8389-930727DB39EA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5CF153E0-3EAF-44E6-829F-C4FF268DA543}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>27,77%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
   </si>
   <si>
     <t>92,13%</t>
   </si>
   <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
   </si>
   <si>
     <t>83,61%</t>
   </si>
   <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>72,23%</t>
   </si>
   <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
   </si>
   <si>
     <t>7,87%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
   </si>
   <si>
     <t>16,39%</t>
   </si>
   <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>80,51%</t>
   </si>
   <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
   </si>
   <si>
     <t>70,83%</t>
   </si>
   <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
   </si>
   <si>
     <t>73,08%</t>
   </si>
   <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
   </si>
   <si>
     <t>19,49%</t>
   </si>
   <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
   </si>
   <si>
     <t>29,17%</t>
   </si>
   <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
   </si>
   <si>
     <t>26,92%</t>
   </si>
   <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,7 +194,7 @@
     <t>83,08%</t>
   </si>
   <si>
-    <t>42,69%</t>
+    <t>49,35%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -203,19 +203,19 @@
     <t>91,69%</t>
   </si>
   <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
   </si>
   <si>
     <t>90,48%</t>
   </si>
   <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
   </si>
   <si>
     <t>16,92%</t>
@@ -224,25 +224,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>57,31%</t>
+    <t>50,65%</t>
   </si>
   <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
   </si>
   <si>
     <t>9,52%</t>
   </si>
   <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>75,08%</t>
   </si>
   <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
   </si>
   <si>
     <t>84,0%</t>
   </si>
   <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
   </si>
   <si>
     <t>82,71%</t>
   </si>
   <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
   </si>
   <si>
     <t>24,92%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
   </si>
   <si>
     <t>16,0%</t>
   </si>
   <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
   </si>
   <si>
     <t>17,29%</t>
   </si>
   <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,49 +308,49 @@
     <t>62,82%</t>
   </si>
   <si>
-    <t>26,31%</t>
+    <t>13,68%</t>
   </si>
   <si>
     <t>91,84%</t>
   </si>
   <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
   </si>
   <si>
     <t>89,14%</t>
   </si>
   <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
   </si>
   <si>
     <t>37,18%</t>
   </si>
   <si>
-    <t>73,69%</t>
+    <t>86,32%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
   </si>
   <si>
     <t>10,86%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -359,55 +359,55 @@
     <t>73,83%</t>
   </si>
   <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
   </si>
   <si>
     <t>89,12%</t>
   </si>
   <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
   </si>
   <si>
     <t>26,17%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
   </si>
   <si>
     <t>10,88%</t>
   </si>
   <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -416,49 +416,49 @@
     <t>92,48%</t>
   </si>
   <si>
-    <t>62,37%</t>
+    <t>61,73%</t>
   </si>
   <si>
     <t>90,21%</t>
   </si>
   <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>90,4%</t>
   </si>
   <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
   </si>
   <si>
     <t>7,52%</t>
   </si>
   <si>
-    <t>37,63%</t>
+    <t>38,27%</t>
   </si>
   <si>
     <t>9,79%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
   </si>
   <si>
     <t>9,6%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -467,103 +467,103 @@
     <t>95,99%</t>
   </si>
   <si>
-    <t>70,31%</t>
+    <t>79,17%</t>
   </si>
   <si>
     <t>91,86%</t>
   </si>
   <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
   </si>
   <si>
     <t>92,23%</t>
   </si>
   <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>29,69%</t>
+    <t>20,83%</t>
   </si>
   <si>
     <t>8,14%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
   </si>
   <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
   </si>
   <si>
     <t>78,82%</t>
   </si>
   <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
   </si>
   <si>
     <t>87,45%</t>
   </si>
   <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
   </si>
   <si>
     <t>86,28%</t>
   </si>
   <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
   </si>
   <si>
     <t>21,18%</t>
   </si>
   <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
   </si>
   <si>
     <t>12,55%</t>
   </si>
   <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
   </si>
   <si>
     <t>13,72%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -978,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC673128-60B6-4048-9DDB-DFB7AB7C0D6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEC8E17-171E-4A25-98C9-1229C515B595}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P78A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78A_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13377D86-DF03-4216-819E-0A374D011C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4F33ED1-BEEE-49C8-8548-3A8F108425E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5CF153E0-3EAF-44E6-829F-C4FF268DA543}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{15BF352E-0707-403C-9775-42419E79EE5B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -978,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEC8E17-171E-4A25-98C9-1229C515B595}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA7D538-1801-47E7-9320-83F39E987778}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P78A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78A_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4F33ED1-BEEE-49C8-8548-3A8F108425E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4297D25-3B98-4665-8FC1-B00C9DDCA45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{15BF352E-0707-403C-9775-42419E79EE5B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7268D6F1-5F03-44FC-A42C-DEB6D590C99F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
-  <si>
-    <t>Población según si ha trabajado anteriormente en 2023 (Tasa respuesta: 13,57%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
+  <si>
+    <t>Población según si la persona sustentadora principal ha trabajado anteriormente en 2023 (Tasa respuesta: 57,62%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,436 +134,454 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
   </si>
   <si>
     <t>Huelva</t>
   </si>
   <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -978,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA7D538-1801-47E7-9320-83F39E987778}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96833CF2-969F-463A-BF26-BC2B49604907}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1096,10 +1114,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="D4" s="7">
-        <v>2519</v>
+        <v>82503</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1111,10 +1129,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="I4" s="7">
-        <v>54745</v>
+        <v>126325</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1126,10 +1144,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>108</v>
+        <v>378</v>
       </c>
       <c r="N4" s="7">
-        <v>57263</v>
+        <v>208828</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1147,10 +1165,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>6553</v>
+        <v>15703</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1162,10 +1180,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>4673</v>
+        <v>13233</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1177,10 +1195,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="N5" s="7">
-        <v>11227</v>
+        <v>28936</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1198,10 +1216,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="D6" s="7">
-        <v>9072</v>
+        <v>98206</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1213,10 +1231,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>113</v>
+        <v>286</v>
       </c>
       <c r="I6" s="7">
-        <v>59418</v>
+        <v>139558</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1228,10 +1246,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>123</v>
+        <v>416</v>
       </c>
       <c r="N6" s="7">
-        <v>68490</v>
+        <v>237764</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1251,10 +1269,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="D7" s="7">
-        <v>27501</v>
+        <v>235686</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1266,10 +1284,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>115</v>
+        <v>384</v>
       </c>
       <c r="I7" s="7">
-        <v>80119</v>
+        <v>276851</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1281,10 +1299,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>126</v>
+        <v>580</v>
       </c>
       <c r="N7" s="7">
-        <v>107620</v>
+        <v>512537</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1302,10 +1320,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D8" s="7">
-        <v>6657</v>
+        <v>40370</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1317,10 +1335,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="I8" s="7">
-        <v>32992</v>
+        <v>105918</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1332,10 +1350,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="N8" s="7">
-        <v>39649</v>
+        <v>146288</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1353,10 +1371,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="D9" s="7">
-        <v>34158</v>
+        <v>276056</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1368,10 +1386,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>161</v>
+        <v>511</v>
       </c>
       <c r="I9" s="7">
-        <v>113111</v>
+        <v>382769</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1383,10 +1401,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>176</v>
+        <v>721</v>
       </c>
       <c r="N9" s="7">
-        <v>147269</v>
+        <v>658825</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1406,10 +1424,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>191</v>
       </c>
       <c r="D10" s="7">
-        <v>10167</v>
+        <v>143508</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1421,10 +1439,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>104</v>
+        <v>323</v>
       </c>
       <c r="I10" s="7">
-        <v>68752</v>
+        <v>206993</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1436,10 +1454,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>112</v>
+        <v>514</v>
       </c>
       <c r="N10" s="7">
-        <v>78919</v>
+        <v>350501</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1457,10 +1475,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7">
-        <v>2071</v>
+        <v>23088</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1472,10 +1490,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="I11" s="7">
-        <v>6228</v>
+        <v>39248</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1487,10 +1505,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="N11" s="7">
-        <v>8299</v>
+        <v>62336</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1508,10 +1526,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="D12" s="7">
-        <v>12238</v>
+        <v>166596</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1523,10 +1541,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>114</v>
+        <v>370</v>
       </c>
       <c r="I12" s="7">
-        <v>74980</v>
+        <v>246241</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1538,10 +1556,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>124</v>
+        <v>575</v>
       </c>
       <c r="N12" s="7">
-        <v>87218</v>
+        <v>412837</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1561,10 +1579,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="D13" s="7">
-        <v>10565</v>
+        <v>132345</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1576,10 +1594,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>131</v>
+        <v>333</v>
       </c>
       <c r="I13" s="7">
-        <v>69611</v>
+        <v>184891</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1591,10 +1609,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>139</v>
+        <v>493</v>
       </c>
       <c r="N13" s="7">
-        <v>80176</v>
+        <v>317237</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1612,10 +1630,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>3507</v>
+        <v>18158</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1627,10 +1645,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I14" s="7">
-        <v>13256</v>
+        <v>54413</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1642,10 +1660,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="N14" s="7">
-        <v>16763</v>
+        <v>72571</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1663,10 +1681,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="D15" s="7">
-        <v>14072</v>
+        <v>150503</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1678,10 +1696,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>156</v>
+        <v>398</v>
       </c>
       <c r="I15" s="7">
-        <v>82867</v>
+        <v>239304</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1693,10 +1711,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>167</v>
+        <v>565</v>
       </c>
       <c r="N15" s="7">
-        <v>96939</v>
+        <v>389808</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1716,10 +1734,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="D16" s="7">
-        <v>2290</v>
+        <v>54927</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1728,37 +1746,37 @@
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="I16" s="7">
-        <v>32655</v>
+        <v>86938</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>82</v>
+        <v>305</v>
       </c>
       <c r="N16" s="7">
-        <v>34945</v>
+        <v>141865</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,49 +1785,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D17" s="7">
-        <v>1355</v>
+        <v>14095</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="I17" s="7">
-        <v>2902</v>
+        <v>25540</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="N17" s="7">
-        <v>4257</v>
+        <v>39635</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1818,10 +1836,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="D18" s="7">
-        <v>3645</v>
+        <v>69022</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1833,10 +1851,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="I18" s="7">
-        <v>35557</v>
+        <v>112478</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1848,10 +1866,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>91</v>
+        <v>356</v>
       </c>
       <c r="N18" s="7">
-        <v>39202</v>
+        <v>181500</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1865,55 +1883,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>11</v>
+        <v>206</v>
       </c>
       <c r="D19" s="7">
-        <v>11299</v>
+        <v>126106</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>86</v>
+        <v>281</v>
       </c>
       <c r="I19" s="7">
-        <v>44020</v>
+        <v>143648</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="N19" s="7">
-        <v>55318</v>
+        <v>269755</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,49 +1940,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D20" s="7">
-        <v>4005</v>
+        <v>11921</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="I20" s="7">
-        <v>5373</v>
+        <v>42247</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="N20" s="7">
-        <v>9378</v>
+        <v>54167</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1973,10 +1991,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c r="D21" s="7">
-        <v>15304</v>
+        <v>138027</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1988,10 +2006,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>99</v>
+        <v>336</v>
       </c>
       <c r="I21" s="7">
-        <v>49393</v>
+        <v>185895</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2003,10 +2021,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>114</v>
+        <v>552</v>
       </c>
       <c r="N21" s="7">
-        <v>64696</v>
+        <v>323922</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2020,55 +2038,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>8</v>
+        <v>267</v>
       </c>
       <c r="D22" s="7">
-        <v>16299</v>
+        <v>242918</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>91</v>
+        <v>435</v>
       </c>
       <c r="I22" s="7">
-        <v>178062</v>
+        <v>391594</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>99</v>
+        <v>702</v>
       </c>
       <c r="N22" s="7">
-        <v>194361</v>
+        <v>634512</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,49 +2095,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D23" s="7">
-        <v>1326</v>
+        <v>45778</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="I23" s="7">
-        <v>19319</v>
+        <v>74371</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="N23" s="7">
-        <v>20645</v>
+        <v>120150</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,10 +2146,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>9</v>
+        <v>284</v>
       </c>
       <c r="D24" s="7">
-        <v>17625</v>
+        <v>288696</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2143,10 +2161,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>114</v>
+        <v>505</v>
       </c>
       <c r="I24" s="7">
-        <v>197381</v>
+        <v>465965</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2158,10 +2176,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>123</v>
+        <v>789</v>
       </c>
       <c r="N24" s="7">
-        <v>215006</v>
+        <v>754662</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2175,55 +2193,55 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>10</v>
+        <v>346</v>
       </c>
       <c r="D25" s="7">
-        <v>16743</v>
+        <v>296351</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
-        <v>240</v>
+        <v>526</v>
       </c>
       <c r="I25" s="7">
-        <v>163715</v>
+        <v>372349</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
-        <v>250</v>
+        <v>872</v>
       </c>
       <c r="N25" s="7">
-        <v>180458</v>
+        <v>668699</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2232,49 +2250,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D26" s="7">
-        <v>699</v>
+        <v>53255</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
-        <v>17</v>
+        <v>163</v>
       </c>
       <c r="I26" s="7">
-        <v>14509</v>
+        <v>166560</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="N26" s="7">
-        <v>15208</v>
+        <v>219815</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2283,10 +2301,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>11</v>
+        <v>375</v>
       </c>
       <c r="D27" s="7">
-        <v>17442</v>
+        <v>349606</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2298,10 +2316,10 @@
         <v>30</v>
       </c>
       <c r="H27" s="7">
-        <v>257</v>
+        <v>689</v>
       </c>
       <c r="I27" s="7">
-        <v>178224</v>
+        <v>538909</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2313,10 +2331,10 @@
         <v>30</v>
       </c>
       <c r="M27" s="7">
-        <v>268</v>
+        <v>1064</v>
       </c>
       <c r="N27" s="7">
-        <v>195666</v>
+        <v>888514</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2336,49 +2354,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>65</v>
+        <v>1582</v>
       </c>
       <c r="D28" s="7">
-        <v>97383</v>
+        <v>1314344</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
-        <v>948</v>
+        <v>2749</v>
       </c>
       <c r="I28" s="7">
-        <v>691676</v>
+        <v>1789590</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
-        <v>1013</v>
+        <v>4331</v>
       </c>
       <c r="N28" s="7">
-        <v>789059</v>
+        <v>3103934</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2387,49 +2405,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="D29" s="7">
-        <v>26172</v>
+        <v>222367</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
-        <v>151</v>
+        <v>596</v>
       </c>
       <c r="I29" s="7">
-        <v>99254</v>
+        <v>521531</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
-        <v>173</v>
+        <v>707</v>
       </c>
       <c r="N29" s="7">
-        <v>125426</v>
+        <v>743898</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2438,10 +2456,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
-        <v>87</v>
+        <v>1693</v>
       </c>
       <c r="D30" s="7">
-        <v>123555</v>
+        <v>1536711</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2453,10 +2471,10 @@
         <v>30</v>
       </c>
       <c r="H30" s="7">
-        <v>1099</v>
+        <v>3345</v>
       </c>
       <c r="I30" s="7">
-        <v>790930</v>
+        <v>2311121</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2468,10 +2486,10 @@
         <v>30</v>
       </c>
       <c r="M30" s="7">
-        <v>1186</v>
+        <v>5038</v>
       </c>
       <c r="N30" s="7">
-        <v>914485</v>
+        <v>3847832</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2485,7 +2503,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78A_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4297D25-3B98-4665-8FC1-B00C9DDCA45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B0F32AB-5DFC-4208-9FC3-A99C7EEDE88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7268D6F1-5F03-44FC-A42C-DEB6D590C99F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7911223E-FBD8-47C5-9979-FAC56C87318B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Población según si la persona sustentadora principal ha trabajado anteriormente en 2023 (Tasa respuesta: 57,62%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,454 +134,448 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
   </si>
   <si>
     <t>Huelva</t>
   </si>
   <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
   </si>
   <si>
     <t>77,27%</t>
   </si>
   <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
   </si>
   <si>
     <t>86,74%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
   </si>
   <si>
     <t>22,73%</t>
   </si>
   <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>21,33%</t>
+    <t>21,48%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
   </si>
   <si>
     <t>79,19%</t>
   </si>
   <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
   </si>
   <si>
     <t>20,81%</t>
   </si>
   <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96833CF2-969F-463A-BF26-BC2B49604907}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E8AA7D-BBAD-4FFD-A614-95DE33BB1C5F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1117,7 +1111,7 @@
         <v>121</v>
       </c>
       <c r="D4" s="7">
-        <v>82503</v>
+        <v>94196</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1132,7 +1126,7 @@
         <v>257</v>
       </c>
       <c r="I4" s="7">
-        <v>126325</v>
+        <v>134515</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1147,7 +1141,7 @@
         <v>378</v>
       </c>
       <c r="N4" s="7">
-        <v>208828</v>
+        <v>228711</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1168,7 +1162,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>15703</v>
+        <v>24028</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1183,7 +1177,7 @@
         <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>13233</v>
+        <v>14061</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1198,7 +1192,7 @@
         <v>38</v>
       </c>
       <c r="N5" s="7">
-        <v>28936</v>
+        <v>38089</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1219,7 +1213,7 @@
         <v>130</v>
       </c>
       <c r="D6" s="7">
-        <v>98206</v>
+        <v>118224</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1234,7 +1228,7 @@
         <v>286</v>
       </c>
       <c r="I6" s="7">
-        <v>139558</v>
+        <v>148576</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1249,7 +1243,7 @@
         <v>416</v>
       </c>
       <c r="N6" s="7">
-        <v>237764</v>
+        <v>266800</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1272,7 +1266,7 @@
         <v>196</v>
       </c>
       <c r="D7" s="7">
-        <v>235686</v>
+        <v>231588</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1287,7 +1281,7 @@
         <v>384</v>
       </c>
       <c r="I7" s="7">
-        <v>276851</v>
+        <v>257562</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1302,7 +1296,7 @@
         <v>580</v>
       </c>
       <c r="N7" s="7">
-        <v>512537</v>
+        <v>489150</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1323,7 +1317,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="7">
-        <v>40370</v>
+        <v>44410</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1338,7 +1332,7 @@
         <v>127</v>
       </c>
       <c r="I8" s="7">
-        <v>105918</v>
+        <v>96802</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1353,7 +1347,7 @@
         <v>141</v>
       </c>
       <c r="N8" s="7">
-        <v>146288</v>
+        <v>141212</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1374,7 +1368,7 @@
         <v>210</v>
       </c>
       <c r="D9" s="7">
-        <v>276056</v>
+        <v>275998</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1389,7 +1383,7 @@
         <v>511</v>
       </c>
       <c r="I9" s="7">
-        <v>382769</v>
+        <v>354364</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1404,7 +1398,7 @@
         <v>721</v>
       </c>
       <c r="N9" s="7">
-        <v>658825</v>
+        <v>630362</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1427,7 +1421,7 @@
         <v>191</v>
       </c>
       <c r="D10" s="7">
-        <v>143508</v>
+        <v>138470</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1442,7 +1436,7 @@
         <v>323</v>
       </c>
       <c r="I10" s="7">
-        <v>206993</v>
+        <v>192964</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1457,7 +1451,7 @@
         <v>514</v>
       </c>
       <c r="N10" s="7">
-        <v>350501</v>
+        <v>331435</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1478,7 +1472,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="7">
-        <v>23088</v>
+        <v>24326</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1493,7 +1487,7 @@
         <v>47</v>
       </c>
       <c r="I11" s="7">
-        <v>39248</v>
+        <v>36610</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1508,7 +1502,7 @@
         <v>61</v>
       </c>
       <c r="N11" s="7">
-        <v>62336</v>
+        <v>60935</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1529,7 +1523,7 @@
         <v>205</v>
       </c>
       <c r="D12" s="7">
-        <v>166596</v>
+        <v>162796</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1544,7 +1538,7 @@
         <v>370</v>
       </c>
       <c r="I12" s="7">
-        <v>246241</v>
+        <v>229574</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1559,7 +1553,7 @@
         <v>575</v>
       </c>
       <c r="N12" s="7">
-        <v>412837</v>
+        <v>392370</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1582,7 +1576,7 @@
         <v>160</v>
       </c>
       <c r="D13" s="7">
-        <v>132345</v>
+        <v>126787</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1597,7 +1591,7 @@
         <v>333</v>
       </c>
       <c r="I13" s="7">
-        <v>184891</v>
+        <v>172020</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1612,7 +1606,7 @@
         <v>493</v>
       </c>
       <c r="N13" s="7">
-        <v>317237</v>
+        <v>298808</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1633,7 +1627,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>18158</v>
+        <v>19943</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1648,7 +1642,7 @@
         <v>65</v>
       </c>
       <c r="I14" s="7">
-        <v>54413</v>
+        <v>50162</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1663,7 +1657,7 @@
         <v>72</v>
       </c>
       <c r="N14" s="7">
-        <v>72571</v>
+        <v>70105</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1684,7 +1678,7 @@
         <v>167</v>
       </c>
       <c r="D15" s="7">
-        <v>150503</v>
+        <v>146730</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1699,7 +1693,7 @@
         <v>398</v>
       </c>
       <c r="I15" s="7">
-        <v>239304</v>
+        <v>222182</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1714,7 +1708,7 @@
         <v>565</v>
       </c>
       <c r="N15" s="7">
-        <v>389808</v>
+        <v>368913</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1737,7 +1731,7 @@
         <v>95</v>
       </c>
       <c r="D16" s="7">
-        <v>54927</v>
+        <v>49906</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1752,7 +1746,7 @@
         <v>210</v>
       </c>
       <c r="I16" s="7">
-        <v>86938</v>
+        <v>78780</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1767,7 +1761,7 @@
         <v>305</v>
       </c>
       <c r="N16" s="7">
-        <v>141865</v>
+        <v>128686</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1788,7 +1782,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="7">
-        <v>14095</v>
+        <v>12294</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1803,7 +1797,7 @@
         <v>40</v>
       </c>
       <c r="I17" s="7">
-        <v>25540</v>
+        <v>21715</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1818,7 +1812,7 @@
         <v>51</v>
       </c>
       <c r="N17" s="7">
-        <v>39635</v>
+        <v>34010</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1839,7 +1833,7 @@
         <v>106</v>
       </c>
       <c r="D18" s="7">
-        <v>69022</v>
+        <v>62200</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1854,7 +1848,7 @@
         <v>250</v>
       </c>
       <c r="I18" s="7">
-        <v>112478</v>
+        <v>100495</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1869,7 +1863,7 @@
         <v>356</v>
       </c>
       <c r="N18" s="7">
-        <v>181500</v>
+        <v>162696</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1892,7 +1886,7 @@
         <v>206</v>
       </c>
       <c r="D19" s="7">
-        <v>126106</v>
+        <v>121647</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1907,7 +1901,7 @@
         <v>281</v>
       </c>
       <c r="I19" s="7">
-        <v>143648</v>
+        <v>134047</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -1922,7 +1916,7 @@
         <v>487</v>
       </c>
       <c r="N19" s="7">
-        <v>269755</v>
+        <v>255694</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -1943,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="7">
-        <v>11921</v>
+        <v>12100</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -1958,7 +1952,7 @@
         <v>55</v>
       </c>
       <c r="I20" s="7">
-        <v>42247</v>
+        <v>39439</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -1973,7 +1967,7 @@
         <v>65</v>
       </c>
       <c r="N20" s="7">
-        <v>54167</v>
+        <v>51540</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -1994,7 +1988,7 @@
         <v>216</v>
       </c>
       <c r="D21" s="7">
-        <v>138027</v>
+        <v>133747</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2009,7 +2003,7 @@
         <v>336</v>
       </c>
       <c r="I21" s="7">
-        <v>185895</v>
+        <v>173486</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2024,7 +2018,7 @@
         <v>552</v>
       </c>
       <c r="N21" s="7">
-        <v>323922</v>
+        <v>307234</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2047,7 +2041,7 @@
         <v>267</v>
       </c>
       <c r="D22" s="7">
-        <v>242918</v>
+        <v>235806</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>127</v>
@@ -2062,7 +2056,7 @@
         <v>435</v>
       </c>
       <c r="I22" s="7">
-        <v>391594</v>
+        <v>464275</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>130</v>
@@ -2077,7 +2071,7 @@
         <v>702</v>
       </c>
       <c r="N22" s="7">
-        <v>634512</v>
+        <v>700081</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>133</v>
@@ -2098,7 +2092,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="7">
-        <v>45778</v>
+        <v>50812</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>136</v>
@@ -2113,7 +2107,7 @@
         <v>70</v>
       </c>
       <c r="I23" s="7">
-        <v>74371</v>
+        <v>68362</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>139</v>
@@ -2128,7 +2122,7 @@
         <v>87</v>
       </c>
       <c r="N23" s="7">
-        <v>120150</v>
+        <v>119174</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>142</v>
@@ -2149,7 +2143,7 @@
         <v>284</v>
       </c>
       <c r="D24" s="7">
-        <v>288696</v>
+        <v>286618</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2164,7 +2158,7 @@
         <v>505</v>
       </c>
       <c r="I24" s="7">
-        <v>465965</v>
+        <v>532637</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2179,7 +2173,7 @@
         <v>789</v>
       </c>
       <c r="N24" s="7">
-        <v>754662</v>
+        <v>819255</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2202,7 +2196,7 @@
         <v>346</v>
       </c>
       <c r="D25" s="7">
-        <v>296351</v>
+        <v>253469</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>146</v>
@@ -2217,7 +2211,7 @@
         <v>526</v>
       </c>
       <c r="I25" s="7">
-        <v>372349</v>
+        <v>312651</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>149</v>
@@ -2232,7 +2226,7 @@
         <v>872</v>
       </c>
       <c r="N25" s="7">
-        <v>668699</v>
+        <v>566120</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>152</v>
@@ -2241,7 +2235,7 @@
         <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,46 +2247,46 @@
         <v>29</v>
       </c>
       <c r="D26" s="7">
-        <v>53255</v>
+        <v>43665</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>163</v>
       </c>
       <c r="I26" s="7">
-        <v>166560</v>
+        <v>132015</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>192</v>
       </c>
       <c r="N26" s="7">
-        <v>219815</v>
+        <v>175680</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,7 +2298,7 @@
         <v>375</v>
       </c>
       <c r="D27" s="7">
-        <v>349606</v>
+        <v>297134</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2319,7 +2313,7 @@
         <v>689</v>
       </c>
       <c r="I27" s="7">
-        <v>538909</v>
+        <v>444666</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2334,7 +2328,7 @@
         <v>1064</v>
       </c>
       <c r="N27" s="7">
-        <v>888514</v>
+        <v>741800</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2357,46 +2351,46 @@
         <v>1582</v>
       </c>
       <c r="D28" s="7">
-        <v>1314344</v>
+        <v>1251869</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>2749</v>
       </c>
       <c r="I28" s="7">
-        <v>1789590</v>
+        <v>1746814</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>4331</v>
       </c>
       <c r="N28" s="7">
-        <v>3103934</v>
+        <v>2998684</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,46 +2402,46 @@
         <v>111</v>
       </c>
       <c r="D29" s="7">
-        <v>222367</v>
+        <v>231579</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>596</v>
       </c>
       <c r="I29" s="7">
-        <v>521531</v>
+        <v>459166</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>707</v>
       </c>
       <c r="N29" s="7">
-        <v>743898</v>
+        <v>690744</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,7 +2453,7 @@
         <v>1693</v>
       </c>
       <c r="D30" s="7">
-        <v>1536711</v>
+        <v>1483448</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2474,7 +2468,7 @@
         <v>3345</v>
       </c>
       <c r="I30" s="7">
-        <v>2311121</v>
+        <v>2205980</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2489,7 +2483,7 @@
         <v>5038</v>
       </c>
       <c r="N30" s="7">
-        <v>3847832</v>
+        <v>3689428</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2503,7 +2497,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
